--- a/data/trans_orig/P5706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>489679</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>459680</v>
+        <v>459684</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>520577</v>
+        <v>526339</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4746224262835598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4455464015697352</v>
+        <v>0.4455501014389333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5045702721530921</v>
+        <v>0.5101557918746468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>588</v>
@@ -765,19 +765,19 @@
         <v>592295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>554957</v>
+        <v>557385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>626989</v>
+        <v>629969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4503760895786105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4219840954768891</v>
+        <v>0.4238306173665566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4767565338881216</v>
+        <v>0.4790225285266378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1085</v>
@@ -786,19 +786,19 @@
         <v>1081974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1039188</v>
+        <v>1035763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1129205</v>
+        <v>1126263</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4610353367489554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.442803942735183</v>
+        <v>0.4413447981420479</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4811607014116783</v>
+        <v>0.4799072141216651</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>299831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271710</v>
+        <v>270504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>330289</v>
+        <v>332122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2906121185816053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.263355593164892</v>
+        <v>0.2621867085792928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3201330506576323</v>
+        <v>0.3219103679082296</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>375</v>
@@ -836,19 +836,19 @@
         <v>381727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>348288</v>
+        <v>353091</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>413636</v>
+        <v>418807</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.290261844270303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2648352416676413</v>
+        <v>0.2684871601688364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3145252539405995</v>
+        <v>0.3184568989535335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -857,19 +857,19 @@
         <v>681558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>637810</v>
+        <v>640055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>729537</v>
+        <v>725143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2904158329122586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2717747298082085</v>
+        <v>0.2727309778411983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3108600886892526</v>
+        <v>0.3089876621673285</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>172802</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>149694</v>
+        <v>149879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195389</v>
+        <v>198021</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1674886639262537</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1450912469996616</v>
+        <v>0.1452704799169721</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1893815823709333</v>
+        <v>0.1919320731461664</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>235</v>
@@ -907,19 +907,19 @@
         <v>243801</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>217711</v>
+        <v>217949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>274335</v>
+        <v>273299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.185384186429149</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1655453358718159</v>
+        <v>0.1657266475793336</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2086021812244087</v>
+        <v>0.2078140882311617</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>409</v>
@@ -928,19 +928,19 @@
         <v>416603</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>378113</v>
+        <v>381190</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>453207</v>
+        <v>454178</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1775169032217071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1611159866752484</v>
+        <v>0.1624273664450611</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1931140964474293</v>
+        <v>0.1935279405852794</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>57977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44878</v>
+        <v>44169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75567</v>
+        <v>74463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0561947543429106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04349804539139286</v>
+        <v>0.04281076053592404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07324349308535333</v>
+        <v>0.07217392616726592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -978,19 +978,19 @@
         <v>73726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60007</v>
+        <v>58204</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92988</v>
+        <v>90960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05606025664071802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04562849908270656</v>
+        <v>0.0442576369749702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07070730719899182</v>
+        <v>0.06916502982950704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -999,19 +999,19 @@
         <v>131703</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109672</v>
+        <v>110419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155840</v>
+        <v>155834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05611938492343387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04673176065361591</v>
+        <v>0.04705028488159005</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06640452494377726</v>
+        <v>0.06640180322984633</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>11434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5922</v>
+        <v>5313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19994</v>
+        <v>19912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01108203686567053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005740081448428797</v>
+        <v>0.005149695845741752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01937970487411022</v>
+        <v>0.01929952061494881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1049,19 +1049,19 @@
         <v>23564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14779</v>
+        <v>15412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34119</v>
+        <v>38080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01791762308121952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01123794427868169</v>
+        <v>0.01171942420790396</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02594359678586231</v>
+        <v>0.02895587261039942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1070,19 +1070,19 @@
         <v>34997</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24684</v>
+        <v>24528</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48698</v>
+        <v>48541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01491254219364503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01051814730425284</v>
+        <v>0.01045155104940191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02075048409090874</v>
+        <v>0.02068364909311242</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1011607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>970707</v>
+        <v>970295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1050603</v>
+        <v>1050791</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5973778091759715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.573225411752512</v>
+        <v>0.5729818519679258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6204054810470705</v>
+        <v>0.6205165965209828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>909</v>
@@ -1195,19 +1195,19 @@
         <v>922603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>883232</v>
+        <v>880307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>961560</v>
+        <v>957994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5811041609134628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5563060927070671</v>
+        <v>0.5544636642802253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6056408042891945</v>
+        <v>0.6033953130326951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1878</v>
@@ -1216,19 +1216,19 @@
         <v>1934211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1874317</v>
+        <v>1880945</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1988268</v>
+        <v>1990250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5895032103741565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5712489643009978</v>
+        <v>0.5732690129593642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6059785367326532</v>
+        <v>0.6065827941844353</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>473581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435392</v>
+        <v>436329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512025</v>
+        <v>512644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2796606062205466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.25710932360286</v>
+        <v>0.2576627034931444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3023626366198036</v>
+        <v>0.3027279993963414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1266,19 +1266,19 @@
         <v>449414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>417265</v>
+        <v>417634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>485983</v>
+        <v>489722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2830644381465101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2628152577022334</v>
+        <v>0.2630477966231635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3060974964120788</v>
+        <v>0.3084525656717336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>920</v>
@@ -1287,19 +1287,19 @@
         <v>922995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>871349</v>
+        <v>873173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>975243</v>
+        <v>976139</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2813076745590901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2655673589361225</v>
+        <v>0.2661231449556826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2972318915928857</v>
+        <v>0.297504903381757</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>164012</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>142554</v>
+        <v>140474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188387</v>
+        <v>189085</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09685302860803525</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08418142533664304</v>
+        <v>0.08295301399791676</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1112468148698507</v>
+        <v>0.1116591792796259</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -1337,19 +1337,19 @@
         <v>162936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135546</v>
+        <v>136983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>186834</v>
+        <v>186097</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1026254384797544</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08537416356827089</v>
+        <v>0.08627932707407078</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1176780048721126</v>
+        <v>0.1172136716023383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>317</v>
@@ -1358,19 +1358,19 @@
         <v>326948</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>293863</v>
+        <v>292855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>361752</v>
+        <v>362251</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09964621985354992</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08956283678587167</v>
+        <v>0.08925565795788855</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1102538516311205</v>
+        <v>0.1104058302506459</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>32766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23180</v>
+        <v>22505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45908</v>
+        <v>44715</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0193492112812515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01368844920464311</v>
+        <v>0.0132897597327123</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02710965719264569</v>
+        <v>0.02640506398334961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1408,19 +1408,19 @@
         <v>44910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32488</v>
+        <v>32056</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60094</v>
+        <v>59362</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0282866920229651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02046236749550633</v>
+        <v>0.0201902725352469</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03785055584464253</v>
+        <v>0.03738914010723714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1429,19 +1429,19 @@
         <v>77676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60822</v>
+        <v>59363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97780</v>
+        <v>98453</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02367393761210639</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01853720394261527</v>
+        <v>0.01809236934143451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0298009996882827</v>
+        <v>0.03000630765396414</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>11446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5954</v>
+        <v>5409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20699</v>
+        <v>20498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006759344714195236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003515806580833285</v>
+        <v>0.003193901121895438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01222325421634754</v>
+        <v>0.01210478968918373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1479,19 +1479,19 @@
         <v>7810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3519</v>
+        <v>3407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16243</v>
+        <v>15897</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00491927043730765</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002216296399795143</v>
+        <v>0.002145628933746839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01023044936342476</v>
+        <v>0.01001253126075304</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1500,19 +1500,19 @@
         <v>19257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11380</v>
+        <v>10893</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29759</v>
+        <v>29803</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005868957601097104</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003468423723063962</v>
+        <v>0.003319893049392014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009069989760118923</v>
+        <v>0.009083184692575842</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>335785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312938</v>
+        <v>312392</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>357897</v>
+        <v>359378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6089601296515291</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5675260054286921</v>
+        <v>0.5665357430771109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6490596860857832</v>
+        <v>0.6517453112260089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -1625,19 +1625,19 @@
         <v>289919</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>268511</v>
+        <v>269613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312144</v>
+        <v>313138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6085472749650264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5636117063834428</v>
+        <v>0.5659233927207021</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.655197696338063</v>
+        <v>0.6572846331834962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>597</v>
@@ -1646,19 +1646,19 @@
         <v>625705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>594967</v>
+        <v>594250</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>656756</v>
+        <v>660555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6087687645693728</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5788626522692878</v>
+        <v>0.5781658818317498</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6389794139931072</v>
+        <v>0.6426756614326463</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>152196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134453</v>
+        <v>131404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176148</v>
+        <v>175444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2760134317966804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2438362672654059</v>
+        <v>0.2383063627789248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3194514831386547</v>
+        <v>0.318174688445413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -1696,19 +1696,19 @@
         <v>130814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110921</v>
+        <v>110898</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150192</v>
+        <v>151264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2745810422409248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2328264056138944</v>
+        <v>0.23277687506507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3152556105802623</v>
+        <v>0.3175058775790872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>271</v>
@@ -1717,19 +1717,19 @@
         <v>283010</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>255533</v>
+        <v>250754</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>313050</v>
+        <v>311519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2753494951769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2486162597048169</v>
+        <v>0.2439667484829573</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3045770566042888</v>
+        <v>0.3030872373687438</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>47397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34187</v>
+        <v>33526</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62627</v>
+        <v>62316</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08595587424267566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06199924589015339</v>
+        <v>0.06080002122413213</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1135765527690098</v>
+        <v>0.1130132153986199</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -1767,19 +1767,19 @@
         <v>38430</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27643</v>
+        <v>26510</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52458</v>
+        <v>50919</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08066449371158778</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05802422999493942</v>
+        <v>0.0556450070687488</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1101097763841469</v>
+        <v>0.1068809200881722</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -1788,19 +1788,19 @@
         <v>85826</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68558</v>
+        <v>66825</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105832</v>
+        <v>105110</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08350323048409342</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06670276124580229</v>
+        <v>0.06501653871748421</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1029676792208462</v>
+        <v>0.1022654391903606</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>13506</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7382</v>
+        <v>7198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23758</v>
+        <v>23111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02449350932298972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01338745616697795</v>
+        <v>0.01305346478109402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0430862399318646</v>
+        <v>0.041912526315708</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1838,19 +1838,19 @@
         <v>16303</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9182</v>
+        <v>9219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25671</v>
+        <v>26001</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03421971395769486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01927246886338339</v>
+        <v>0.01935167012041886</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05388344195247945</v>
+        <v>0.05457750321964252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1859,19 +1859,19 @@
         <v>29809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18854</v>
+        <v>20110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42932</v>
+        <v>42519</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02900176854794076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0183441134269114</v>
+        <v>0.01956596241704555</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04176972975463331</v>
+        <v>0.04136789011275251</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9180</v>
+        <v>8174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004577054986125069</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01664778320623298</v>
+        <v>0.01482467377910959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4722</v>
+        <v>3832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001987475124766167</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.00991079991755074</v>
+        <v>0.008043744501938078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1930,19 +1930,19 @@
         <v>3471</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9081</v>
+        <v>9541</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00337674122169309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0009169751970943426</v>
+        <v>0.0009322624531597886</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008835461844331861</v>
+        <v>0.009282482392639483</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1837071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1782059</v>
+        <v>1780258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1895626</v>
+        <v>1891779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5606735949298064</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5438838819347667</v>
+        <v>0.5433342730100805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5785444748253346</v>
+        <v>0.5773705259951299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1773</v>
@@ -2055,19 +2055,19 @@
         <v>1804818</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1744062</v>
+        <v>1741314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1857356</v>
+        <v>1862442</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5340965719466495</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5161173150484458</v>
+        <v>0.5153040369351402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.549644123192304</v>
+        <v>0.5511492349159495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3560</v>
@@ -2076,19 +2076,19 @@
         <v>3641889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3553815</v>
+        <v>3558753</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3723301</v>
+        <v>3720466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5471801297351784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5339473660786466</v>
+        <v>0.5346892437629628</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5594120113132873</v>
+        <v>0.5589860071595278</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>925608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>875677</v>
+        <v>877614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>976151</v>
+        <v>975806</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2824952534579386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2672562635489416</v>
+        <v>0.2678476116797942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2979210874839173</v>
+        <v>0.2978156179549061</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>944</v>
@@ -2126,19 +2126,19 @@
         <v>961954</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>912036</v>
+        <v>916802</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1019694</v>
+        <v>1019646</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2846694971888962</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2698971586455703</v>
+        <v>0.2713077673020979</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3017562017785991</v>
+        <v>0.301742096519552</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1866</v>
@@ -2147,19 +2147,19 @@
         <v>1887562</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1811872</v>
+        <v>1819107</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1962585</v>
+        <v>1961916</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2835991424122021</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2722269610831377</v>
+        <v>0.2733139180540451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2948709668111472</v>
+        <v>0.2947705524864858</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>384211</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>346831</v>
+        <v>349076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>424274</v>
+        <v>421802</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1172610055272677</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.105852768328595</v>
+        <v>0.1065378502961033</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1294884554183329</v>
+        <v>0.1287338100409292</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>425</v>
@@ -2197,19 +2197,19 @@
         <v>445166</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>408183</v>
+        <v>406405</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>485762</v>
+        <v>490701</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.131737270564011</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.120792816309432</v>
+        <v>0.1202666532125949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1437508552689869</v>
+        <v>0.1452122581115977</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>806</v>
@@ -2218,19 +2218,19 @@
         <v>829377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>780530</v>
+        <v>777716</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>891929</v>
+        <v>883911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1246107744816498</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1172717052387897</v>
+        <v>0.1168489037158282</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.134009042597681</v>
+        <v>0.1328043263409571</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>104250</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85448</v>
+        <v>85410</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124923</v>
+        <v>126217</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.031816922144584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02607862899419617</v>
+        <v>0.02606719408002731</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0381264152048428</v>
+        <v>0.03852141321705121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -2268,19 +2268,19 @@
         <v>134938</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>112600</v>
+        <v>112014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159758</v>
+        <v>160594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03993203925881781</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03332155042052253</v>
+        <v>0.03314816042356715</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04727701607897091</v>
+        <v>0.04752432285758031</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -2289,19 +2289,19 @@
         <v>239188</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>209755</v>
+        <v>209590</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>272367</v>
+        <v>274468</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03593706195108679</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03151497127344075</v>
+        <v>0.03149011601789199</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04092204204173082</v>
+        <v>0.04123773616706307</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>25404</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16512</v>
+        <v>16102</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38622</v>
+        <v>38779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007753223940403323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005039557461563558</v>
+        <v>0.004914270203544665</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01178731624801248</v>
+        <v>0.01183519331982313</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -2339,19 +2339,19 @@
         <v>32321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22021</v>
+        <v>22899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44447</v>
+        <v>45469</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00956462104162541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006516650881164424</v>
+        <v>0.006776515870993808</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01315307283949929</v>
+        <v>0.01345555613530138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -2360,19 +2360,19 @@
         <v>57725</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43554</v>
+        <v>44540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74661</v>
+        <v>75736</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008672891419882887</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006543789464324586</v>
+        <v>0.006691900859788991</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01121759024484904</v>
+        <v>0.01137903698456842</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>524350</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>491775</v>
+        <v>491562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>553803</v>
+        <v>556137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5402245888454495</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.506662892442044</v>
+        <v>0.5064439081278772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5705696082124526</v>
+        <v>0.5729739330768252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>631</v>
@@ -2724,19 +2724,19 @@
         <v>676336</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>639674</v>
+        <v>639155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>709525</v>
+        <v>714718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5063621516599253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4789139074723421</v>
+        <v>0.4785249357703568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5312100980329106</v>
+        <v>0.5350978078667697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1123</v>
@@ -2745,19 +2745,19 @@
         <v>1200686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1155136</v>
+        <v>1150249</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1250991</v>
+        <v>1250599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5206133366530967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5008627346445036</v>
+        <v>0.4987439531577817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5424253282747252</v>
+        <v>0.5422554568176947</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>280625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254649</v>
+        <v>252406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312470</v>
+        <v>309915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2891211588486395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2623579836209052</v>
+        <v>0.26004734788906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3219297807953709</v>
+        <v>0.3192980513365039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>415</v>
@@ -2795,19 +2795,19 @@
         <v>445164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>409069</v>
+        <v>410800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480119</v>
+        <v>482303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3332869644495898</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3062636922915741</v>
+        <v>0.3075596329776049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3594576302625409</v>
+        <v>0.361092903368519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -2816,19 +2816,19 @@
         <v>725789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>681321</v>
+        <v>680603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769855</v>
+        <v>770765</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3146995526061016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2954182078131356</v>
+        <v>0.2951071352013572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3338063105032181</v>
+        <v>0.3342007694116346</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>130326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110752</v>
+        <v>108523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153434</v>
+        <v>153025</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1342713604172408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.114104869795043</v>
+        <v>0.1118087562173436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1580796210366983</v>
+        <v>0.1576573109225836</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -2866,19 +2866,19 @@
         <v>160488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>137730</v>
+        <v>137839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>186264</v>
+        <v>185928</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1201549378776782</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1031161566178013</v>
+        <v>0.1031980890507701</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1394529772233687</v>
+        <v>0.1392014467108605</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -2887,19 +2887,19 @@
         <v>290814</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257069</v>
+        <v>258165</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>323495</v>
+        <v>322818</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1260959086338848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1114643617888963</v>
+        <v>0.1119393206788239</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1402664559891188</v>
+        <v>0.1399728082510067</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>24992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16249</v>
+        <v>16704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35261</v>
+        <v>36642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02574847891627282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01674138609442824</v>
+        <v>0.01720930640778872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03632890315113171</v>
+        <v>0.03775169827691186</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2937,19 +2937,19 @@
         <v>38919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28048</v>
+        <v>26865</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54715</v>
+        <v>53299</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02913780823017964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02099884630634937</v>
+        <v>0.0201131376274483</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04096405289043564</v>
+        <v>0.03990423463428275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -2958,19 +2958,19 @@
         <v>63911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48251</v>
+        <v>47523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81923</v>
+        <v>80032</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02771139114181031</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02092136298116875</v>
+        <v>0.02060590480937188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03552160620841144</v>
+        <v>0.03470164912753462</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>10322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5996</v>
+        <v>5158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20733</v>
+        <v>21064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01063441297239737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006177452474519093</v>
+        <v>0.005314077574288905</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0213605659259309</v>
+        <v>0.0217019424718079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3008,19 +3008,19 @@
         <v>14770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8693</v>
+        <v>7767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24694</v>
+        <v>23959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01105813778262705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006508526271169239</v>
+        <v>0.005815048552154975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01848793273649645</v>
+        <v>0.01793777029828162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -3029,19 +3029,19 @@
         <v>25092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15699</v>
+        <v>16097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36477</v>
+        <v>36650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01087981096510663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006806866834441349</v>
+        <v>0.006979573791099035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01581633748087799</v>
+        <v>0.01589117915317817</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1206443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1164659</v>
+        <v>1163248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1248418</v>
+        <v>1250206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6149982210242095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5936986038301221</v>
+        <v>0.5929793443942263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6363957039753999</v>
+        <v>0.6373071936098681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>957</v>
@@ -3154,19 +3154,19 @@
         <v>1025015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>981672</v>
+        <v>982377</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1066199</v>
+        <v>1066954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5840633595618299</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5593663435184631</v>
+        <v>0.5597676853461234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6075303718995213</v>
+        <v>0.60796065967108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2098</v>
@@ -3175,19 +3175,19 @@
         <v>2231458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2167764</v>
+        <v>2169489</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2290444</v>
+        <v>2292859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.60039112011229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5832536117993391</v>
+        <v>0.5837178854825451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.616261710731125</v>
+        <v>0.6169114607341951</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>548782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>509907</v>
+        <v>510994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>595897</v>
+        <v>590247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2797478234829887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2599312465926362</v>
+        <v>0.2604850555677365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.303765484517638</v>
+        <v>0.3008850681996006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>491</v>
@@ -3225,19 +3225,19 @@
         <v>524713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>487853</v>
+        <v>486587</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565188</v>
+        <v>563291</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2989864962730259</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2779832072929826</v>
+        <v>0.2772621343901748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3220496938579031</v>
+        <v>0.320968422166056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1004</v>
@@ -3246,19 +3246,19 @@
         <v>1073495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1019274</v>
+        <v>1019483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1128135</v>
+        <v>1129072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2888321129082776</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2742434591303219</v>
+        <v>0.2742997856831094</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3035335743560116</v>
+        <v>0.3037855512324417</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>165611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>142868</v>
+        <v>141447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>191278</v>
+        <v>190818</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08442206102871015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0728284003806446</v>
+        <v>0.07210424408657128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09750597715169446</v>
+        <v>0.0972715544925844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>143</v>
@@ -3296,19 +3296,19 @@
         <v>153885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129805</v>
+        <v>131383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>179938</v>
+        <v>179520</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08768491647414231</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07396421636573713</v>
+        <v>0.07486328394086381</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1025301602908756</v>
+        <v>0.1022919671126128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -3317,19 +3317,19 @@
         <v>319496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>284767</v>
+        <v>285931</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>355627</v>
+        <v>355620</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08596274543779971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07661864904659661</v>
+        <v>0.07693185750177592</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09568432234485973</v>
+        <v>0.09568219031809379</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>30707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20776</v>
+        <v>19617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41968</v>
+        <v>43625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01565307220791833</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01059083593799665</v>
+        <v>0.01000007269215198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.021393930845653</v>
+        <v>0.02223845822292913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3367,19 +3367,19 @@
         <v>36498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24290</v>
+        <v>24948</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52262</v>
+        <v>51752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0207966311035449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0138405268660287</v>
+        <v>0.0142154496113959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02977939513694193</v>
+        <v>0.02948874260152809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -3388,19 +3388,19 @@
         <v>67204</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51306</v>
+        <v>52102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86155</v>
+        <v>86829</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01808180407491532</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01380430718753239</v>
+        <v>0.01401856354616519</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0231807201282506</v>
+        <v>0.02336202209268525</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>10159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4031</v>
+        <v>4928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20087</v>
+        <v>21625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005178822256173305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002054822454024125</v>
+        <v>0.002512173159584487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01023980819774518</v>
+        <v>0.01102344522020742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3438,19 +3438,19 @@
         <v>14862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7506</v>
+        <v>7787</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25013</v>
+        <v>26322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008468596587457062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004276731951417848</v>
+        <v>0.004437182964523181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01425270629469022</v>
+        <v>0.01499856232258061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -3459,19 +3459,19 @@
         <v>25021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15456</v>
+        <v>15505</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38629</v>
+        <v>38167</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006732217466717364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004158460070405403</v>
+        <v>0.004171838833077201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0103934622114623</v>
+        <v>0.01026924021717291</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>325946</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>303603</v>
+        <v>302095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>349723</v>
+        <v>344123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.680352027801322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6337136872663162</v>
+        <v>0.6305658645075388</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7299816600638958</v>
+        <v>0.71829284903002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -3584,19 +3584,19 @@
         <v>308668</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286921</v>
+        <v>287660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329719</v>
+        <v>328774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6730203778592075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6256025257079492</v>
+        <v>0.6272151476163682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7189192863714992</v>
+        <v>0.7168596961768576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>576</v>
@@ -3605,19 +3605,19 @@
         <v>634614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>601206</v>
+        <v>603321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>665620</v>
+        <v>665711</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6767661629163672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6411391434914312</v>
+        <v>0.6433944172525691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7098314362790594</v>
+        <v>0.7099280492621506</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>103884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86120</v>
+        <v>86918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123881</v>
+        <v>123587</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2168386131088288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1797588060220508</v>
+        <v>0.1814241592579796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2585785156621669</v>
+        <v>0.2579651940111539</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -3655,19 +3655,19 @@
         <v>106346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87814</v>
+        <v>87331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128308</v>
+        <v>125433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2318769369581972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1914687821776618</v>
+        <v>0.1904177322672072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2797624059428872</v>
+        <v>0.2734940688390244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>192</v>
@@ -3676,19 +3676,19 @@
         <v>210230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>185591</v>
+        <v>184644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239385</v>
+        <v>241177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2241937647930727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1979186603188921</v>
+        <v>0.19690776117569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2552851133024621</v>
+        <v>0.2571964632861553</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>35492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23747</v>
+        <v>24929</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49653</v>
+        <v>50294</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07408195324105529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04956654400139407</v>
+        <v>0.05203518343205989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1036421481067461</v>
+        <v>0.1049788686082601</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -3726,19 +3726,19 @@
         <v>35792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24969</v>
+        <v>23332</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50832</v>
+        <v>48745</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.078040511549619</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05444245215031205</v>
+        <v>0.05087318582387243</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1108336197824398</v>
+        <v>0.1062832614909449</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -3747,19 +3747,19 @@
         <v>71283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54737</v>
+        <v>55319</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91308</v>
+        <v>90791</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07601805975811457</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05837301465213961</v>
+        <v>0.05899360428496728</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09737238210784692</v>
+        <v>0.09682118848395171</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>11577</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5218</v>
+        <v>5449</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22380</v>
+        <v>23352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02416390202516725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01089134897640426</v>
+        <v>0.0113741616146916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04671359435832597</v>
+        <v>0.04874298796323016</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -3797,19 +3797,19 @@
         <v>7825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3881</v>
+        <v>3904</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14753</v>
+        <v>14847</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01706217363297626</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008462509573688102</v>
+        <v>0.008511239793972102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0321671126795244</v>
+        <v>0.03237238183087816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -3818,19 +3818,19 @@
         <v>19402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12235</v>
+        <v>11362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32230</v>
+        <v>31819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02069049035588336</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01304811919596238</v>
+        <v>0.01211693523993981</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03437106337994116</v>
+        <v>0.03393241801188911</v>
       </c>
     </row>
     <row r="20">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10799</v>
+        <v>12277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004563503823626643</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02254104262218761</v>
+        <v>0.02562520937481831</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11045</v>
+        <v>14564</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002331522176562249</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01177812874642049</v>
+        <v>0.01553101376821211</v>
       </c>
     </row>
     <row r="21">
@@ -3985,19 +3985,19 @@
         <v>2056739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1995517</v>
+        <v>1997923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2114367</v>
+        <v>2113216</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6029016102726414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5849553447161505</v>
+        <v>0.5856605877525639</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6197943680905276</v>
+        <v>0.6194570431187598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1865</v>
@@ -4006,19 +4006,19 @@
         <v>2010019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1953582</v>
+        <v>1951244</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2071520</v>
+        <v>2072084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5663174406092296</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5504164058305018</v>
+        <v>0.5497575791577333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5836452578760271</v>
+        <v>0.5838039490544725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3797</v>
@@ -4027,19 +4027,19 @@
         <v>4066759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3976758</v>
+        <v>3982253</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4152509</v>
+        <v>4152794</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5842471909925666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5713173209444861</v>
+        <v>0.5721067265724619</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5965664167539297</v>
+        <v>0.5966073487927079</v>
       </c>
     </row>
     <row r="23">
@@ -4056,19 +4056,19 @@
         <v>933291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>876205</v>
+        <v>881558</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>989463</v>
+        <v>991551</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2735799920656283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2568459644359595</v>
+        <v>0.2584152039885439</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2900458096834553</v>
+        <v>0.2906579967866342</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1001</v>
@@ -4077,19 +4077,19 @@
         <v>1076223</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1018083</v>
+        <v>1020675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1132861</v>
+        <v>1133427</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3032227936552891</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2868421159063185</v>
+        <v>0.2875724140373978</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.319180649444525</v>
+        <v>0.3193400480319326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1868</v>
@@ -4098,19 +4098,19 @@
         <v>2009514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1930096</v>
+        <v>1941137</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2089947</v>
+        <v>2086470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2886949790826121</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2772854776779526</v>
+        <v>0.2788717004532726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3002502485808584</v>
+        <v>0.2997508115379721</v>
       </c>
     </row>
     <row r="24">
@@ -4127,19 +4127,19 @@
         <v>331428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>298592</v>
+        <v>297368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>368597</v>
+        <v>368497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09715310216049967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08752781826485527</v>
+        <v>0.08716885721059751</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1080485397501586</v>
+        <v>0.1080193437232133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>325</v>
@@ -4148,19 +4148,19 @@
         <v>350165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>316514</v>
+        <v>313230</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>386248</v>
+        <v>389439</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0986579094071648</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0891768636227192</v>
+        <v>0.08825159876944993</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.108824424737815</v>
+        <v>0.1097233306407576</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>640</v>
@@ -4169,19 +4169,19 @@
         <v>681593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>627896</v>
+        <v>631435</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>729280</v>
+        <v>728308</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09792040959355755</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09020613159311751</v>
+        <v>0.09071451753867256</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1047714131024066</v>
+        <v>0.1046316938049015</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>67275</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52100</v>
+        <v>50588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86268</v>
+        <v>86676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01972065666099751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0152722457591903</v>
+        <v>0.01482921441064789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02528825867711786</v>
+        <v>0.02540773591421751</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -4219,19 +4219,19 @@
         <v>83241</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65990</v>
+        <v>64923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104318</v>
+        <v>103174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02345305071371112</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01859252021237553</v>
+        <v>0.01829192895281556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0293913642527685</v>
+        <v>0.02906891371661289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -4240,19 +4240,19 @@
         <v>150517</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124582</v>
+        <v>129095</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177827</v>
+        <v>177414</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02162381981102551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01789793234246674</v>
+        <v>0.01854636743356508</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02554739673624773</v>
+        <v>0.02548805168258145</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>22668</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13203</v>
+        <v>13794</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35460</v>
+        <v>35557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006644638840232973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003870200172830419</v>
+        <v>0.004043459901408863</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01039441505838277</v>
+        <v>0.01042295485751797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -4290,19 +4290,19 @@
         <v>29632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19101</v>
+        <v>19193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43395</v>
+        <v>42579</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008348805614605345</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005381589666660315</v>
+        <v>0.005407483523819658</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01222648080893306</v>
+        <v>0.0119963902755847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -4311,19 +4311,19 @@
         <v>52300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39379</v>
+        <v>38346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70706</v>
+        <v>69688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00751360052023821</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005657353774849508</v>
+        <v>0.005508999500810303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01015786081852413</v>
+        <v>0.01001170907264797</v>
       </c>
     </row>
     <row r="27">
@@ -4654,19 +4654,19 @@
         <v>325047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>297106</v>
+        <v>300693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>350951</v>
+        <v>353356</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4308991316297359</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3938584084870946</v>
+        <v>0.3986142282220036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4652382214055431</v>
+        <v>0.4684267148007411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>362</v>
@@ -4675,19 +4675,19 @@
         <v>401815</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>370519</v>
+        <v>370161</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>434571</v>
+        <v>432519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.404489084518412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3729847863493777</v>
+        <v>0.3726240014227713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4374625851487099</v>
+        <v>0.4353971110567762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>690</v>
@@ -4696,19 +4696,19 @@
         <v>726862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>683941</v>
+        <v>684156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>768644</v>
+        <v>768103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4158880231062075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.391329878265986</v>
+        <v>0.3914525290683493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4397941819486396</v>
+        <v>0.4394843783032715</v>
       </c>
     </row>
     <row r="5">
@@ -4725,19 +4725,19 @@
         <v>248720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223806</v>
+        <v>223219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276224</v>
+        <v>273958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.329715294026122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2966886861579431</v>
+        <v>0.2959108787925738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.366175848300157</v>
+        <v>0.3631721509876233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>310</v>
@@ -4746,19 +4746,19 @@
         <v>343783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312428</v>
+        <v>313369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>375507</v>
+        <v>372143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3460713037998889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3145075849143509</v>
+        <v>0.3154543837003411</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3780056298162585</v>
+        <v>0.3746191253610924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>559</v>
@@ -4767,19 +4767,19 @@
         <v>592503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>548595</v>
+        <v>549711</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>633387</v>
+        <v>631805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3390118256336189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3138890613811016</v>
+        <v>0.3145274536509763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.362404519012554</v>
+        <v>0.3614991813011673</v>
       </c>
     </row>
     <row r="6">
@@ -4796,19 +4796,19 @@
         <v>146618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125479</v>
+        <v>126840</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170648</v>
+        <v>168715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1943643549295642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1663406093505847</v>
+        <v>0.1681454056301612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2262200186317178</v>
+        <v>0.223656906443229</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>172</v>
@@ -4817,19 +4817,19 @@
         <v>191800</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165705</v>
+        <v>168938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>218967</v>
+        <v>219765</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1930767066455033</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1668075141267394</v>
+        <v>0.1700623125684605</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2204242475946044</v>
+        <v>0.2212272810064323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>323</v>
@@ -4838,19 +4838,19 @@
         <v>338418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>303695</v>
+        <v>306148</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>370728</v>
+        <v>373668</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1936324733069871</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1737645546184645</v>
+        <v>0.1751684240443652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2121187938068036</v>
+        <v>0.2138013729716361</v>
       </c>
     </row>
     <row r="7">
@@ -4867,19 +4867,19 @@
         <v>29986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20655</v>
+        <v>19712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42834</v>
+        <v>41516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03975062664971905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02738134586871801</v>
+        <v>0.02613060377406113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05678264905633056</v>
+        <v>0.05503592871979825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4888,19 +4888,19 @@
         <v>44666</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32004</v>
+        <v>31807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60477</v>
+        <v>61700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0449634542859765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03221673659548744</v>
+        <v>0.03201864404034906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06087965948983966</v>
+        <v>0.06211017346892326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -4909,19 +4909,19 @@
         <v>74652</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58696</v>
+        <v>57726</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93210</v>
+        <v>92232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0427135263761931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03358397187285589</v>
+        <v>0.03302897860620188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05333160439171907</v>
+        <v>0.05277199843192733</v>
       </c>
     </row>
     <row r="8">
@@ -4938,19 +4938,19 @@
         <v>3976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10094</v>
+        <v>9826</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005270592764858816</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001316676877416888</v>
+        <v>0.001299634146596757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0133806333210042</v>
+        <v>0.0130259109466895</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4959,19 +4959,19 @@
         <v>11324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4948</v>
+        <v>5619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22153</v>
+        <v>22002</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01139945075021934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004981086403177599</v>
+        <v>0.005656051041005167</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02230015488597537</v>
+        <v>0.02214818138427413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -4980,19 +4980,19 @@
         <v>15300</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8197</v>
+        <v>8549</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27159</v>
+        <v>24849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008754151576993337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004690271796733911</v>
+        <v>0.004891347994719309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01553941269098039</v>
+        <v>0.01421797521244947</v>
       </c>
     </row>
     <row r="9">
@@ -5084,19 +5084,19 @@
         <v>1015817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>968395</v>
+        <v>969076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1063704</v>
+        <v>1062115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4903196095929223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.467429767986557</v>
+        <v>0.4677585632414635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5134337365207203</v>
+        <v>0.5126667748742531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>934</v>
@@ -5105,19 +5105,19 @@
         <v>965657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>918879</v>
+        <v>921043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1009646</v>
+        <v>1013245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4865307073908283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4629621866810657</v>
+        <v>0.4640529309622254</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5086939943468174</v>
+        <v>0.5105070067010093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1894</v>
@@ -5126,19 +5126,19 @@
         <v>1981474</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1911046</v>
+        <v>1919837</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2045354</v>
+        <v>2042080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4884657719294456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4711039768597781</v>
+        <v>0.4732711553725565</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.504213243208838</v>
+        <v>0.5034060385157899</v>
       </c>
     </row>
     <row r="11">
@@ -5155,19 +5155,19 @@
         <v>736695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690899</v>
+        <v>695652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>781573</v>
+        <v>777181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.355591407936803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3334866074337113</v>
+        <v>0.3357808573509809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3772536339624616</v>
+        <v>0.3751333641237565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>674</v>
@@ -5176,19 +5176,19 @@
         <v>703712</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>659764</v>
+        <v>660362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>744500</v>
+        <v>743578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3545541443657286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3324113318771305</v>
+        <v>0.3327127107349849</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3751045317423938</v>
+        <v>0.374639925427003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -5197,19 +5197,19 @@
         <v>1440407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1381775</v>
+        <v>1378043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1509663</v>
+        <v>1498069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3550838946328314</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3406300644815555</v>
+        <v>0.3397100490158813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3721565761155072</v>
+        <v>0.3692984101146589</v>
       </c>
     </row>
     <row r="12">
@@ -5226,19 +5226,19 @@
         <v>265747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>232490</v>
+        <v>232879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>297240</v>
+        <v>297335</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1282722270338623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1122192588894435</v>
+        <v>0.1124073911680299</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1434731910040267</v>
+        <v>0.1435193284948503</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>256</v>
@@ -5247,19 +5247,19 @@
         <v>272164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>241945</v>
+        <v>243747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>303441</v>
+        <v>305978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1371252080174497</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1218998979454941</v>
+        <v>0.12280794796149</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1528840242443056</v>
+        <v>0.1541619292432174</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>503</v>
@@ -5268,19 +5268,19 @@
         <v>537911</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>493114</v>
+        <v>493833</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>585529</v>
+        <v>583762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1326038219671775</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1215607240482854</v>
+        <v>0.1217378720730261</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1443424350075409</v>
+        <v>0.1439067923602046</v>
       </c>
     </row>
     <row r="13">
@@ -5297,19 +5297,19 @@
         <v>41291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29310</v>
+        <v>30154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57656</v>
+        <v>58069</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01993032253675025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01414753153893654</v>
+        <v>0.01455475692007245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0278295377707388</v>
+        <v>0.02802880340470001</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -5318,19 +5318,19 @@
         <v>35929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25290</v>
+        <v>25054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49769</v>
+        <v>48390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01810202063237453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01274191072826542</v>
+        <v>0.01262289728381774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02507527042616138</v>
+        <v>0.02438044183763418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5339,19 +5339,19 @@
         <v>77219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60533</v>
+        <v>60560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98546</v>
+        <v>94830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01903576924670633</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0149224619759991</v>
+        <v>0.01492906723422312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02429320068724713</v>
+        <v>0.02337718766845568</v>
       </c>
     </row>
     <row r="14">
@@ -5368,19 +5368,19 @@
         <v>12195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6493</v>
+        <v>6207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21073</v>
+        <v>20926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005886432899662193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003134091716186146</v>
+        <v>0.002996097122164612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01017175567100178</v>
+        <v>0.01010063851277179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -5389,19 +5389,19 @@
         <v>7320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3092</v>
+        <v>3139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14189</v>
+        <v>14070</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003687919593618851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001558003097510305</v>
+        <v>0.001581684098714774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007149064606034813</v>
+        <v>0.007088953655592444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -5410,19 +5410,19 @@
         <v>19515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11706</v>
+        <v>11948</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29072</v>
+        <v>30576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004810742223839185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002885641584419706</v>
+        <v>0.002945297803697585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007166606391139913</v>
+        <v>0.007537372298409258</v>
       </c>
     </row>
     <row r="15">
@@ -5514,19 +5514,19 @@
         <v>316008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>291505</v>
+        <v>289030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>339305</v>
+        <v>338313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5787461255122182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5338715979530607</v>
+        <v>0.5293389386553219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6214144562073063</v>
+        <v>0.6195961903506909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>328</v>
@@ -5535,19 +5535,19 @@
         <v>342973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>319611</v>
+        <v>317293</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>365655</v>
+        <v>364829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6256276592592789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5830130752489133</v>
+        <v>0.5787836192748743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6670021977931542</v>
+        <v>0.6654955729551395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>619</v>
@@ -5556,19 +5556,19 @@
         <v>658980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>624632</v>
+        <v>623870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>693035</v>
+        <v>690339</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6022336962796367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5708429802855827</v>
+        <v>0.5701465841112049</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6333554498637399</v>
+        <v>0.6308916268160727</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>172479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150469</v>
+        <v>150428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197579</v>
+        <v>195324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3158838082573993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.275574095957272</v>
+        <v>0.2754990154955626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3618519779298215</v>
+        <v>0.3577227701773252</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -5606,19 +5606,19 @@
         <v>154884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135321</v>
+        <v>132661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176778</v>
+        <v>177293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2825279721234109</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2468428419393809</v>
+        <v>0.2419903957648631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3224668833266061</v>
+        <v>0.323406616741248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -5627,19 +5627,19 @@
         <v>327363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>297876</v>
+        <v>299180</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>358852</v>
+        <v>359367</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2991725895944094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2722247421396667</v>
+        <v>0.2734165440788229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3279501166038104</v>
+        <v>0.3284213286827021</v>
       </c>
     </row>
     <row r="18">
@@ -5656,19 +5656,19 @@
         <v>54427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41351</v>
+        <v>40507</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70551</v>
+        <v>70903</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09967870984723694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07573176739291393</v>
+        <v>0.07418516248017822</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1292097970640536</v>
+        <v>0.1298545440727542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -5677,19 +5677,19 @@
         <v>41497</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30219</v>
+        <v>30862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56400</v>
+        <v>56466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07569560878504486</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05512267256525488</v>
+        <v>0.05629570433244629</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1028818680636448</v>
+        <v>0.1030016357114023</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -5698,19 +5698,19 @@
         <v>95923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>77050</v>
+        <v>79010</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>118123</v>
+        <v>117893</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08766321593316026</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07041507999276443</v>
+        <v>0.07220609097410759</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1079513602491562</v>
+        <v>0.1077405360622176</v>
       </c>
     </row>
     <row r="19">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4662</v>
+        <v>6326</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001932850814946608</v>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.008538378754568378</v>
+        <v>0.0115849185130295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5748,19 +5748,19 @@
         <v>8853</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3867</v>
+        <v>3937</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16605</v>
+        <v>16053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01614875983226535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007053566037488841</v>
+        <v>0.007181366675640927</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03028971518358975</v>
+        <v>0.02928282130050769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5769,19 +5769,19 @@
         <v>9908</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5277</v>
+        <v>4968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18549</v>
+        <v>17702</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009054997689853236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004822829536114184</v>
+        <v>0.004540071972253341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01695143750743498</v>
+        <v>0.01617719326764766</v>
       </c>
     </row>
     <row r="20">
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6229</v>
+        <v>6303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003758505568199015</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01140710148781441</v>
+        <v>0.01154390560492459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6723</v>
+        <v>6513</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001875500502940333</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00614364158193406</v>
+        <v>0.005951934570677988</v>
       </c>
     </row>
     <row r="21">
@@ -5936,19 +5936,19 @@
         <v>1656872</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1602047</v>
+        <v>1602735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1715702</v>
+        <v>1722522</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4913454049029146</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4750869377715548</v>
+        <v>0.4752908750041452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5087912639924598</v>
+        <v>0.5108137035700965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1624</v>
@@ -5957,19 +5957,19 @@
         <v>1710445</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1653034</v>
+        <v>1648381</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1772327</v>
+        <v>1766787</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4850432086640583</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4687628892102866</v>
+        <v>0.4674432283943246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5025914809968604</v>
+        <v>0.5010205426322748</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3203</v>
@@ -5978,19 +5978,19 @@
         <v>3367317</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3288144</v>
+        <v>3279644</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3453406</v>
+        <v>3454774</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4881238424192506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4766469915285877</v>
+        <v>0.4754147675747179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.500603180803267</v>
+        <v>0.5008015225291785</v>
       </c>
     </row>
     <row r="23">
@@ -6007,19 +6007,19 @@
         <v>1157894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1103712</v>
+        <v>1100170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1218261</v>
+        <v>1211613</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3433733266114353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3273056399488937</v>
+        <v>0.3262553032653696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3612752881151665</v>
+        <v>0.359303809955414</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1132</v>
@@ -6028,19 +6028,19 @@
         <v>1202379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1147183</v>
+        <v>1147116</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1261365</v>
+        <v>1258841</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3409674089703983</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3253150844356316</v>
+        <v>0.3252960083722994</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3576942972032111</v>
+        <v>0.3569785370324807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2232</v>
@@ -6049,19 +6049,19 @@
         <v>2360273</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2286220</v>
+        <v>2277432</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2437548</v>
+        <v>2442164</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3421434674135636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3314087563244442</v>
+        <v>0.330134878210363</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3533451965422055</v>
+        <v>0.3540144001845725</v>
       </c>
     </row>
     <row r="24">
@@ -6078,19 +6078,19 @@
         <v>466792</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>428571</v>
+        <v>424720</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>509393</v>
+        <v>503987</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.138427201143884</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1270928514641384</v>
+        <v>0.1259507048564625</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.151060552421846</v>
+        <v>0.1494574700135367</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>468</v>
@@ -6099,19 +6099,19 @@
         <v>505461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>461782</v>
+        <v>463914</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>545675</v>
+        <v>547660</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1433371203958205</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1309509141854685</v>
+        <v>0.1315555599817778</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1547410365414383</v>
+        <v>0.1553040429062342</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>914</v>
@@ -6120,19 +6120,19 @@
         <v>972253</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>911674</v>
+        <v>915601</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1031745</v>
+        <v>1035366</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1409370581937699</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1321556128551015</v>
+        <v>0.1327249308798533</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1495609823478381</v>
+        <v>0.1500859358311187</v>
       </c>
     </row>
     <row r="25">
@@ -6149,19 +6149,19 @@
         <v>72332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55793</v>
+        <v>56490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90103</v>
+        <v>91204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02144995821467008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01654530084500671</v>
+        <v>0.01675222189275182</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02672008637263924</v>
+        <v>0.02704656725769626</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -6170,19 +6170,19 @@
         <v>89448</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72278</v>
+        <v>70571</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110868</v>
+        <v>109887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02536530366032733</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02049630608110172</v>
+        <v>0.02001229335414636</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03143963695383444</v>
+        <v>0.03116138542009157</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>148</v>
@@ -6191,19 +6191,19 @@
         <v>161779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>137509</v>
+        <v>137444</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189620</v>
+        <v>188777</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02345140810931871</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01993315684423586</v>
+        <v>0.01992377678110551</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02748715356020375</v>
+        <v>0.02736497482468141</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>18223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10891</v>
+        <v>11064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26843</v>
+        <v>28498</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005404109127095981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003229841805222618</v>
+        <v>0.003281087138355175</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007960247611162185</v>
+        <v>0.008451027159862394</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -6241,19 +6241,19 @@
         <v>18644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11168</v>
+        <v>10724</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29653</v>
+        <v>30328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005286958309395628</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00316711493093804</v>
+        <v>0.00304116470942164</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008408855040100209</v>
+        <v>0.008600465174366479</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -6262,19 +6262,19 @@
         <v>36867</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25286</v>
+        <v>26555</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>50676</v>
+        <v>50859</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005344223864097173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003665502293883156</v>
+        <v>0.003849348596687761</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007345978662631004</v>
+        <v>0.007372415242238745</v>
       </c>
     </row>
     <row r="27">
@@ -6605,19 +6605,19 @@
         <v>281432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257811</v>
+        <v>259429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>304562</v>
+        <v>305747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4905193237320203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4493493825064885</v>
+        <v>0.45216855386329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5308341631640786</v>
+        <v>0.5328993492154703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>613</v>
@@ -6626,19 +6626,19 @@
         <v>355072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332301</v>
+        <v>333356</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>375956</v>
+        <v>377469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4353744465622944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4074538737532969</v>
+        <v>0.4087473095681715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4609817807944993</v>
+        <v>0.4628368848940884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>941</v>
@@ -6647,19 +6647,19 @@
         <v>636504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>604820</v>
+        <v>604789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>670732</v>
+        <v>669615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4581477832364164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4353415282518838</v>
+        <v>0.4353197432686206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4827841944291353</v>
+        <v>0.4819802720352271</v>
       </c>
     </row>
     <row r="5">
@@ -6676,19 +6676,19 @@
         <v>150927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130901</v>
+        <v>132401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170137</v>
+        <v>169229</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2630560510640006</v>
+        <v>0.2630560510640005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2281528947858454</v>
+        <v>0.2307666963441147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2965381428213321</v>
+        <v>0.2949559851085355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -6697,19 +6697,19 @@
         <v>257332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236130</v>
+        <v>238109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278903</v>
+        <v>279145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3155290555045185</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2895324179415574</v>
+        <v>0.2919590972293639</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3419790295868247</v>
+        <v>0.3422762692690679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>628</v>
@@ -6718,19 +6718,19 @@
         <v>408258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>379784</v>
+        <v>380496</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>436850</v>
+        <v>436368</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.293859129706177</v>
+        <v>0.2938591297061769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2733635339618616</v>
+        <v>0.2738761280677348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3144391390632145</v>
+        <v>0.31409256449955</v>
       </c>
     </row>
     <row r="6">
@@ -6747,19 +6747,19 @@
         <v>90572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74350</v>
+        <v>74186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110045</v>
+        <v>109223</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1578623924915123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.129586919290606</v>
+        <v>0.1293026321529256</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1918013526398105</v>
+        <v>0.1903688761770278</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>225</v>
@@ -6768,19 +6768,19 @@
         <v>122387</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106960</v>
+        <v>108410</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137908</v>
+        <v>138968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1500662699616767</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1311502888583758</v>
+        <v>0.1329275104612082</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1690963775969477</v>
+        <v>0.1703968329794429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>332</v>
@@ -6789,19 +6789,19 @@
         <v>212960</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191624</v>
+        <v>191024</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>238316</v>
+        <v>237301</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.153285856843305</v>
+        <v>0.1532858568433051</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.137928682561437</v>
+        <v>0.1374965538081686</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1715365697414622</v>
+        <v>0.1708065233599316</v>
       </c>
     </row>
     <row r="7">
@@ -6818,19 +6818,19 @@
         <v>35428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26182</v>
+        <v>25969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47732</v>
+        <v>47357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06174905766787719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0456336307985882</v>
+        <v>0.04526251797350483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08319474990684633</v>
+        <v>0.0825403085548226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -6839,19 +6839,19 @@
         <v>63883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52388</v>
+        <v>52849</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77247</v>
+        <v>77049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07833033188085639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06423549908434623</v>
+        <v>0.06480123872411284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09471715333172462</v>
+        <v>0.09447363552329559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -6860,19 +6860,19 @@
         <v>99311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84039</v>
+        <v>83707</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117351</v>
+        <v>117089</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0714827159368423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06049045387418282</v>
+        <v>0.06025135043810751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08446796434235578</v>
+        <v>0.08427924547177017</v>
       </c>
     </row>
     <row r="8">
@@ -6889,19 +6889,19 @@
         <v>15384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9235</v>
+        <v>9504</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24155</v>
+        <v>24123</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02681317504458956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01609569651540464</v>
+        <v>0.01656557887618715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04209992701429248</v>
+        <v>0.04204502829101095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -6910,19 +6910,19 @@
         <v>16882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11030</v>
+        <v>11239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24405</v>
+        <v>24705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02069989609065399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01352395764448684</v>
+        <v>0.01378128703372878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02992491985694572</v>
+        <v>0.03029169843045332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -6931,19 +6931,19 @@
         <v>32266</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23975</v>
+        <v>23310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42687</v>
+        <v>42242</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02322451427725918</v>
+        <v>0.02322451427725919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01725657789940517</v>
+        <v>0.01677796086491215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.030725667548096</v>
+        <v>0.03040494410130288</v>
       </c>
     </row>
     <row r="9">
@@ -7035,19 +7035,19 @@
         <v>1265859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1214522</v>
+        <v>1217456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1318555</v>
+        <v>1322207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5680514928471383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5450140639943046</v>
+        <v>0.5463306278510067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5916988793453316</v>
+        <v>0.5933374243280999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1563</v>
@@ -7056,19 +7056,19 @@
         <v>1215839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1168292</v>
+        <v>1175654</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1258341</v>
+        <v>1257375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5609544854454903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5390177495752626</v>
+        <v>0.5424142668347721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5805638285639867</v>
+        <v>0.5801179317894339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2612</v>
@@ -7077,19 +7077,19 @@
         <v>2481698</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2411129</v>
+        <v>2417312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2551062</v>
+        <v>2557448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5645522110713559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5484986241249605</v>
+        <v>0.5499052484819601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5803315517099656</v>
+        <v>0.5817843103325907</v>
       </c>
     </row>
     <row r="11">
@@ -7106,19 +7106,19 @@
         <v>704535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654802</v>
+        <v>655413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753055</v>
+        <v>751931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3161586098947484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2938409772136962</v>
+        <v>0.294115378282414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3379317691118827</v>
+        <v>0.3374274940919548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>993</v>
@@ -7127,19 +7127,19 @@
         <v>694112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653691</v>
+        <v>654985</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>737032</v>
+        <v>731419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3202439554207083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3015950128729872</v>
+        <v>0.3021919608494283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3400460477511236</v>
+        <v>0.3374564536686968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1684</v>
@@ -7148,19 +7148,19 @@
         <v>1398647</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1334780</v>
+        <v>1335397</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1463364</v>
+        <v>1462447</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3181729483810584</v>
+        <v>0.3181729483810583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3036440503308707</v>
+        <v>0.3037845592655931</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3328951247618391</v>
+        <v>0.3326865212233772</v>
       </c>
     </row>
     <row r="12">
@@ -7177,19 +7177,19 @@
         <v>164523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138048</v>
+        <v>138336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192125</v>
+        <v>191277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07382915911221126</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06194893423965053</v>
+        <v>0.06207801113470152</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08621582672327081</v>
+        <v>0.08583507732798595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>224</v>
@@ -7198,19 +7198,19 @@
         <v>153362</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>133248</v>
+        <v>135216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176566</v>
+        <v>176542</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07075692267181484</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06147703275976545</v>
+        <v>0.06238511019180914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08146278275741865</v>
+        <v>0.0814515704884884</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>381</v>
@@ -7219,19 +7219,19 @@
         <v>317884</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>285350</v>
+        <v>279404</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>354482</v>
+        <v>350716</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07231434866065706</v>
+        <v>0.07231434866065704</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06491327438088067</v>
+        <v>0.06356049435115234</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08063982596662171</v>
+        <v>0.07978296830885699</v>
       </c>
     </row>
     <row r="13">
@@ -7248,19 +7248,19 @@
         <v>70715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55256</v>
+        <v>54142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91167</v>
+        <v>89633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0317333604673937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02479611237862128</v>
+        <v>0.02429611687357244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0409111088341249</v>
+        <v>0.04022242623558728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -7269,19 +7269,19 @@
         <v>78316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62955</v>
+        <v>65368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95752</v>
+        <v>97672</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03613277170543061</v>
+        <v>0.0361327717054306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02904574928066513</v>
+        <v>0.03015899353571727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04417724298490908</v>
+        <v>0.04506315608333115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -7290,19 +7290,19 @@
         <v>149031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127732</v>
+        <v>128475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176546</v>
+        <v>177534</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03390255357910729</v>
+        <v>0.03390255357910728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02905727366178042</v>
+        <v>0.0292263624908724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04016171900744121</v>
+        <v>0.04038645131539741</v>
       </c>
     </row>
     <row r="14">
@@ -7319,19 +7319,19 @@
         <v>22791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13570</v>
+        <v>14520</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34688</v>
+        <v>34927</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01022737767850824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006089574412810767</v>
+        <v>0.006515977559641962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01556605822551783</v>
+        <v>0.01567357283435594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -7340,19 +7340,19 @@
         <v>25818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17079</v>
+        <v>17331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37679</v>
+        <v>38967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.011911864756556</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007879847684774873</v>
+        <v>0.007996171908838154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01738391802403942</v>
+        <v>0.01797835481615548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -7361,19 +7361,19 @@
         <v>48609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36082</v>
+        <v>35348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67247</v>
+        <v>64427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0110579383078215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008208095475038845</v>
+        <v>0.008041190956747556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01529786669227166</v>
+        <v>0.014656357306287</v>
       </c>
     </row>
     <row r="15">
@@ -7465,19 +7465,19 @@
         <v>452504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424774</v>
+        <v>424833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>479760</v>
+        <v>480866</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6374807601628524</v>
+        <v>0.6374807601628522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5984163491195851</v>
+        <v>0.5984993617479715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6758790988405834</v>
+        <v>0.6774371968273928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>688</v>
@@ -7486,19 +7486,19 @@
         <v>517898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>493219</v>
+        <v>496452</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>538296</v>
+        <v>538972</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7061683688698829</v>
+        <v>0.7061683688698828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.672518736092833</v>
+        <v>0.6769273700869536</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7339817841875504</v>
+        <v>0.7349039068319269</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1099</v>
@@ -7507,19 +7507,19 @@
         <v>970401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>937118</v>
+        <v>940238</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1004472</v>
+        <v>1006266</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6723852277671366</v>
+        <v>0.6723852277671367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6493233668558084</v>
+        <v>0.6514851278847572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6959929686797548</v>
+        <v>0.697236041519362</v>
       </c>
     </row>
     <row r="17">
@@ -7536,19 +7536,19 @@
         <v>202013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178358</v>
+        <v>178805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227392</v>
+        <v>229590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2845929037166279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2512676118753293</v>
+        <v>0.2518978510584485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.32034660880932</v>
+        <v>0.3234433635353294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>251</v>
@@ -7557,19 +7557,19 @@
         <v>169976</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151253</v>
+        <v>151245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192619</v>
+        <v>190733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2317669521225269</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2062376298514128</v>
+        <v>0.2062263921121956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2626418417461543</v>
+        <v>0.2600696916055664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>465</v>
@@ -7578,19 +7578,19 @@
         <v>371989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>340734</v>
+        <v>340140</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404254</v>
+        <v>401519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2577487355938691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2360922663393233</v>
+        <v>0.2356812170528207</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2801054995569945</v>
+        <v>0.2782101801050456</v>
       </c>
     </row>
     <row r="18">
@@ -7607,19 +7607,19 @@
         <v>37236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26343</v>
+        <v>25977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52918</v>
+        <v>51630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05245730437679282</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03711174028608872</v>
+        <v>0.03659579673643654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0745503875621744</v>
+        <v>0.07273576557424818</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -7628,19 +7628,19 @@
         <v>32894</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23671</v>
+        <v>22964</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44515</v>
+        <v>44247</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04485173599342432</v>
+        <v>0.0448517359934243</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03227649363120975</v>
+        <v>0.0313115004281598</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06069718936720889</v>
+        <v>0.06033174699166152</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -7649,19 +7649,19 @@
         <v>70130</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54960</v>
+        <v>54332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88685</v>
+        <v>88212</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04859243966179387</v>
+        <v>0.04859243966179388</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03808118077515614</v>
+        <v>0.0376466623760636</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06144924743401939</v>
+        <v>0.06112159832921182</v>
       </c>
     </row>
     <row r="19">
@@ -7678,19 +7678,19 @@
         <v>12648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6950</v>
+        <v>7299</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20841</v>
+        <v>21280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01781893033687613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009790658225468053</v>
+        <v>0.01028280379560759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02936112714600722</v>
+        <v>0.0299795625725818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -7699,19 +7699,19 @@
         <v>6613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3495</v>
+        <v>3570</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11599</v>
+        <v>11467</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009016343336625885</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004764905922938661</v>
+        <v>0.004868126537762339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01581521205915246</v>
+        <v>0.01563545817229891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -7720,19 +7720,19 @@
         <v>19261</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12281</v>
+        <v>12694</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28134</v>
+        <v>29197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01334578563774087</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008509362774060629</v>
+        <v>0.008795583113618969</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01949382430308638</v>
+        <v>0.02023073011792912</v>
       </c>
     </row>
     <row r="20">
@@ -7749,19 +7749,19 @@
         <v>5430</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1569</v>
+        <v>1588</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12965</v>
+        <v>14266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00765010140685094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00221010332115871</v>
+        <v>0.002237467916940504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01826514316298099</v>
+        <v>0.0200983430665366</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -7770,19 +7770,19 @@
         <v>6011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3107</v>
+        <v>3229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11931</v>
+        <v>11307</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008196599677540089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004235841124401806</v>
+        <v>0.004403307188200971</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01626847471606225</v>
+        <v>0.01541766269567667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -7791,19 +7791,19 @@
         <v>11442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6018</v>
+        <v>6181</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19869</v>
+        <v>19743</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007927811339459415</v>
+        <v>0.007927811339459419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004169547487532162</v>
+        <v>0.004282870354927193</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01376685373742857</v>
+        <v>0.01367989133435879</v>
       </c>
     </row>
     <row r="21">
@@ -7895,19 +7895,19 @@
         <v>1999794</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1939102</v>
+        <v>1932459</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2065848</v>
+        <v>2061540</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5694181029751231</v>
+        <v>0.569418102975123</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5521367973390654</v>
+        <v>0.5502452381235909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5882260654112451</v>
+        <v>0.5869994790074461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2864</v>
@@ -7916,19 +7916,19 @@
         <v>2088809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2031220</v>
+        <v>2037561</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2144792</v>
+        <v>2145478</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5620526124957218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5465566600725661</v>
+        <v>0.5482628943857546</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5771165132956033</v>
+        <v>0.577301128987922</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4652</v>
@@ -7937,19 +7937,19 @@
         <v>4088603</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4002276</v>
+        <v>4005726</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4174276</v>
+        <v>4170313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5656312202635642</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5536883966658335</v>
+        <v>0.5541656811827672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5774835713012052</v>
+        <v>0.5769353151553943</v>
       </c>
     </row>
     <row r="23">
@@ -7966,19 +7966,19 @@
         <v>1057474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1002881</v>
+        <v>1001208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1116191</v>
+        <v>1114992</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3011034937293284</v>
+        <v>0.3011034937293283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2855586651405407</v>
+        <v>0.2850823470434183</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3178222691248494</v>
+        <v>0.3174808810164482</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1687</v>
@@ -7987,19 +7987,19 @@
         <v>1121419</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1070781</v>
+        <v>1073869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1176535</v>
+        <v>1177687</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3017492697636708</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2881235430547232</v>
+        <v>0.2889544774527645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3165795945251994</v>
+        <v>0.3168896540981662</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2777</v>
@@ -8008,19 +8008,19 @@
         <v>2178893</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2105267</v>
+        <v>2106080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2256087</v>
+        <v>2257374</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3014355120934589</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2912498467268728</v>
+        <v>0.2913622265115257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3121147505458053</v>
+        <v>0.3122927514240501</v>
       </c>
     </row>
     <row r="24">
@@ -8037,19 +8037,19 @@
         <v>292331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>258211</v>
+        <v>258835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>326800</v>
+        <v>329787</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08323778026795667</v>
+        <v>0.08323778026795665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07352270369945153</v>
+        <v>0.07370014863787024</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09305235665142031</v>
+        <v>0.09390304366478891</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>492</v>
@@ -8058,19 +8058,19 @@
         <v>308643</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>279625</v>
+        <v>283844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>338136</v>
+        <v>337614</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08304909756476882</v>
+        <v>0.08304909756476879</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07524096933990901</v>
+        <v>0.07637626829599124</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09098502557170278</v>
+        <v>0.09084442091537183</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>792</v>
@@ -8079,19 +8079,19 @@
         <v>600974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>557850</v>
+        <v>556790</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>647248</v>
+        <v>651489</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0831407712135467</v>
+        <v>0.08314077121354672</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0771749051885154</v>
+        <v>0.07702822379193681</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08954250502723191</v>
+        <v>0.0901292369331904</v>
       </c>
     </row>
     <row r="25">
@@ -8108,19 +8108,19 @@
         <v>118792</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99458</v>
+        <v>99707</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142050</v>
+        <v>141055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03382459040330684</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0283195138886179</v>
+        <v>0.02839030608141289</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04044715016458023</v>
+        <v>0.04016390884519535</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>222</v>
@@ -8129,19 +8129,19 @@
         <v>148811</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130056</v>
+        <v>130035</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174103</v>
+        <v>171874</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04004180655677139</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03499513846046216</v>
+        <v>0.03498953146936282</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04684716323532975</v>
+        <v>0.04624754861284015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>351</v>
@@ -8150,19 +8150,19 @@
         <v>267603</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>236237</v>
+        <v>239373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>298402</v>
+        <v>301055</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03702110099977331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03268176363389411</v>
+        <v>0.03311561069204334</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04128189353286141</v>
+        <v>0.04164894535818305</v>
       </c>
     </row>
     <row r="26">
@@ -8179,19 +8179,19 @@
         <v>43605</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31918</v>
+        <v>32501</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59798</v>
+        <v>59092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01241603262428525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009088201976571545</v>
+        <v>0.009254366377307623</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01702684125467737</v>
+        <v>0.01682576881325141</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>69</v>
@@ -8200,19 +8200,19 @@
         <v>48712</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37204</v>
+        <v>36567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63275</v>
+        <v>63969</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01310721361906722</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01001089091020564</v>
+        <v>0.009839490567361936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0170258050520325</v>
+        <v>0.01721260636242599</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -8221,19 +8221,19 @@
         <v>92317</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>75191</v>
+        <v>74714</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>112536</v>
+        <v>111578</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01277139542965685</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01040224075629903</v>
+        <v>0.01033616564011131</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01556854892194246</v>
+        <v>0.01543609028274642</v>
       </c>
     </row>
     <row r="27">
